--- a/output/junior/19_count.xlsx
+++ b/output/junior/19_count.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="87">
   <si>
     <t>list</t>
   </si>
@@ -22,250 +22,259 @@
     <t>count</t>
   </si>
   <si>
-    <t>[[[0, 0, 0, 0, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 0, 0, 0, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 0, 0, 2, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 0, 2, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 0, 2, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 1, 0, 0, 1]], [0, 0]]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 1, 0, 0, 1]], [0, 1]]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 1, 0, 0, 1]], [0, 3]]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 1, 2, 2, 3]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 1, 3, 0, 1]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 2, 0, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 2, 0, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 2, 2, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 2, 2, 2, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 2, 2, 2, 1]], [0, 5]]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 2, 2, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 2, 3, 3, 2]], [0, 3]]</t>
-  </si>
-  <si>
-    <t>[[[0, 0, 3, 2, 2, 1]], [0, 5]]</t>
-  </si>
-  <si>
-    <t>[[[0, 1, 0, 1, 3, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 1, 0, 1, 3, 2]], [0, 3]]</t>
-  </si>
-  <si>
-    <t>[[[0, 1, 1, 0, 0, 1]], [0, 2]]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 0, 0, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 0, 0, 0, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 0, 0, 2, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 0, 0, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 0, 2, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 0, 2, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 1, 0, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 2, 0, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 2, 2, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 2, 2, 0, 3]], [0, 5]]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 2, 2, 2, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 2, 2, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 2, 2, 2, 2, 3]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 3, 0, 3, 3, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[0, 3, 2, 3, 3, 2]], [0, 1]]</t>
-  </si>
-  <si>
-    <t>[[[0, 3, 2, 3, 3, 2]], [0, 4]]</t>
-  </si>
-  <si>
-    <t>[[[1, 0, 1, 0, 0, 1]], None]</t>
-  </si>
-  <si>
-    <t>[[[1, 0, 1, 0, 0, 1]], [0, 0]]</t>
-  </si>
-  <si>
-    <t>[[[1, 0, 1, 0, 0, 1]], [0, 1]]</t>
-  </si>
-  <si>
-    <t>[[[1, 0, 1, 0, 0, 1]], [0, 2]]</t>
-  </si>
-  <si>
-    <t>[[[1, 0, 1, 0, 0, 1]], [0, 3]]</t>
-  </si>
-  <si>
-    <t>[[[1, 0, 1, 0, 0, 1]], [0, 4]]</t>
-  </si>
-  <si>
-    <t>[[[1, 0, 1, 0, 0, 1]], [0, 5]]</t>
-  </si>
-  <si>
-    <t>[[[1, 1, 3, 2, 2, 3]], None]</t>
-  </si>
-  <si>
-    <t>[[[1, 2, 1, 2, 2, 3]], None]</t>
-  </si>
-  <si>
-    <t>[[[1, 2, 2, 3, 1, 3]], None]</t>
-  </si>
-  <si>
-    <t>[[[1, 3, 2, 2, 2, 3]], [0, 1]]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 0, 0, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 0, 0, 0, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 0, 0, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 0, 2, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 0, 2, 0, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 0, 2, 2, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 0, 2, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 2, 0, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 2, 0, 0, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 2, 2, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 2, 2, 0, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 2, 2, 2, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 0, 2, 2, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 0, 0, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 0, 0, 0, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 0, 0, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 0, 0, 2, 3]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 0, 2, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 0, 2, 2, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 0, 2, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 2, 0, 0, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 2, 0, 0, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 2, 0, 2, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 2, 0, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 2, 2, 2, 2]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 2, 3, 0, 2, 1]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 3, 0, 1, 3, 2]], [0, 2]]</t>
-  </si>
-  <si>
-    <t>[[[2, 3, 0, 3, 1, 0]], [0, 1]]</t>
-  </si>
-  <si>
-    <t>[[[2, 3, 1, 0, 0, 1]], None]</t>
-  </si>
-  <si>
-    <t>[[[2, 3, 1, 0, 0, 1]], [0, 2]]</t>
-  </si>
-  <si>
-    <t>[[[2, 3, 2, 3, 1, 0]], None]</t>
-  </si>
-  <si>
-    <t>[[[3, 1, 2, 2, 2, 1]], [0, 5]]</t>
-  </si>
-  <si>
-    <t>[[[3, 2, 3, 0, 0, 1]], [0, 2]]</t>
-  </si>
-  <si>
-    <t>[[[3, 2, 3, 2, 2, 3]], None]</t>
+    <t>success</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000020</t>
+  </si>
+  <si>
+    <t>000200</t>
+  </si>
+  <si>
+    <t>000222</t>
+  </si>
+  <si>
+    <t>00100100</t>
+  </si>
+  <si>
+    <t>00100101</t>
+  </si>
+  <si>
+    <t>00100103</t>
+  </si>
+  <si>
+    <t>001223</t>
+  </si>
+  <si>
+    <t>001301</t>
+  </si>
+  <si>
+    <t>002000</t>
+  </si>
+  <si>
+    <t>002022</t>
+  </si>
+  <si>
+    <t>002200</t>
+  </si>
+  <si>
+    <t>002220</t>
+  </si>
+  <si>
+    <t>00222105</t>
+  </si>
+  <si>
+    <t>002222</t>
+  </si>
+  <si>
+    <t>00233203</t>
+  </si>
+  <si>
+    <t>00322105</t>
+  </si>
+  <si>
+    <t>010132</t>
+  </si>
+  <si>
+    <t>01013203</t>
+  </si>
+  <si>
+    <t>01100102</t>
+  </si>
+  <si>
+    <t>020000</t>
+  </si>
+  <si>
+    <t>020002</t>
+  </si>
+  <si>
+    <t>020020</t>
+  </si>
+  <si>
+    <t>020022</t>
+  </si>
+  <si>
+    <t>020200</t>
+  </si>
+  <si>
+    <t>020222</t>
+  </si>
+  <si>
+    <t>021022</t>
+  </si>
+  <si>
+    <t>022000</t>
+  </si>
+  <si>
+    <t>022200</t>
+  </si>
+  <si>
+    <t>02220305</t>
+  </si>
+  <si>
+    <t>022220</t>
+  </si>
+  <si>
+    <t>022222</t>
+  </si>
+  <si>
+    <t>022223</t>
+  </si>
+  <si>
+    <t>030332</t>
+  </si>
+  <si>
+    <t>03233201</t>
+  </si>
+  <si>
+    <t>03233204</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>10100100</t>
+  </si>
+  <si>
+    <t>10100101</t>
+  </si>
+  <si>
+    <t>10100102</t>
+  </si>
+  <si>
+    <t>10100103</t>
+  </si>
+  <si>
+    <t>10100104</t>
+  </si>
+  <si>
+    <t>10100105</t>
+  </si>
+  <si>
+    <t>113223</t>
+  </si>
+  <si>
+    <t>121223</t>
+  </si>
+  <si>
+    <t>122313</t>
+  </si>
+  <si>
+    <t>13222301</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>200002</t>
+  </si>
+  <si>
+    <t>200022</t>
+  </si>
+  <si>
+    <t>200200</t>
+  </si>
+  <si>
+    <t>200202</t>
+  </si>
+  <si>
+    <t>200220</t>
+  </si>
+  <si>
+    <t>200222</t>
+  </si>
+  <si>
+    <t>202000</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>202200</t>
+  </si>
+  <si>
+    <t>202202</t>
+  </si>
+  <si>
+    <t>202220</t>
+  </si>
+  <si>
+    <t>202222</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>220002</t>
+  </si>
+  <si>
+    <t>220022</t>
+  </si>
+  <si>
+    <t>220023</t>
+  </si>
+  <si>
+    <t>220200</t>
+  </si>
+  <si>
+    <t>220220</t>
+  </si>
+  <si>
+    <t>220222</t>
+  </si>
+  <si>
+    <t>222000</t>
+  </si>
+  <si>
+    <t>222002</t>
+  </si>
+  <si>
+    <t>222020</t>
+  </si>
+  <si>
+    <t>222022</t>
+  </si>
+  <si>
+    <t>222222</t>
+  </si>
+  <si>
+    <t>223021</t>
+  </si>
+  <si>
+    <t>23013202</t>
+  </si>
+  <si>
+    <t>23031001</t>
+  </si>
+  <si>
+    <t>231001</t>
+  </si>
+  <si>
+    <t>23100102</t>
+  </si>
+  <si>
+    <t>232310</t>
+  </si>
+  <si>
+    <t>31222105</t>
+  </si>
+  <si>
+    <t>32300102</t>
+  </si>
+  <si>
+    <t>323223</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -623,928 +632,1180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C84">
         <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
